--- a/Progress/Week12/USER_Group_15_Testing_Group_1.xlsx
+++ b/Progress/Week12/USER_Group_15_Testing_Group_1.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbecker\Dropbox\BnC_Shared\BDIC\Comp3030J_S2019\Week 12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11518\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E90422-5193-4C93-BF75-ADD4F319361C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA89FDB0-5723-493C-AA68-81E86EA06B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1896" yWindow="468" windowWidth="14220" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Score (1-5) 1 is not acceptable, 5 is outstanding</t>
   </si>
@@ -58,17 +67,146 @@
   </si>
   <si>
     <t>GROUP NUMBER THAT YOU ARE TESTING_______________                                                       Your Group Number____________</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Good Point:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Perfect UI design&amp;development and animation effect. Prompt and correct process on user input.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bad Point:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> We think the main functionality should be stressed and highlighted. Pehaps, some main functionality such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">reservation making </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>could be highlited in the home page.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check List:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.Online reservation(Done)           2.The Customer can trace the reservation (Done)              3.Three Location[Beijing, Shanghai, Chengdu](NF)        4. Make reservation for multiple pets with type [emergency,standard] (Done)      </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Point：1.Clean and explict UI.                   2.Illustrative chart          3. The input are handled correctly.   4.Great state control. 5. Coherent interface theme.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:     1.Employee can organized, prioritized, and tracing the reservation(Done)         2.  Customer can put question to the system and questions can be replyed by the employee.(Done)         3. Inbox notification(Done)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>When testing the requirements met, we use the checklist to test item by item. For ease of use, we mainly focus on the accept of the user-input and overall theme&amp;structure are considered as well.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -76,14 +214,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +229,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -99,8 +237,32 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -167,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -182,22 +344,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -205,12 +355,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,63 +656,63 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -558,10 +723,10 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -574,57 +739,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="68.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="292.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:9" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="56.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
-    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
@@ -633,6 +816,7 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="B7:I7"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Progress/Week12/USER_Group_15_Testing_Group_1.xlsx
+++ b/Progress/Week12/USER_Group_15_Testing_Group_1.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11518\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Group15_SEproject\Progress\Week12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA89FDB0-5723-493C-AA68-81E86EA06B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD48C64A-6899-4658-9607-8E1A46C3A2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1896" yWindow="468" windowWidth="14220" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Score (1-5) 1 is not acceptable, 5 is outstanding</t>
   </si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">What test strategy did you use? Describe! </t>
-  </si>
-  <si>
-    <t>GROUP NUMBER THAT YOU ARE TESTING_______________                                                       Your Group Number____________</t>
   </si>
   <si>
     <r>
@@ -195,6 +189,173 @@
   </si>
   <si>
     <t>When testing the requirements met, we use the checklist to test item by item. For ease of use, we mainly focus on the accept of the user-input and overall theme&amp;structure are considered as well.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suit with the Check List:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.User can add their pets into their account and make reservation
+2.Customer can trace the reservation on the reservation website
+3.They mentioned they have three locations of people and user can see the map of China, but user can not select the location when add the reservation
+4.User can make reservation for their different pets(cat,dog) and with different type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Additional:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Some pages of hospital introduction and online shopping
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completion:
+Excellent</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">All functions are mentioned with full details. </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>All functions are mentioned with full details</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suit with the Check List:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.There are two pages and Employee can organized, prioritized, and tracing the reservation on only one page easily,  employee also can see the map of hospital information,this is very good.
+2. Employee can see the user's problems and customer can see the reply
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Additional:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Maps of hspital
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completion:
+Excellent</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP NUMBER THAT YOU ARE TESTING____1___________                                                       Your Group Number__________15__</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -355,9 +516,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,6 +530,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +829,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -672,45 +845,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -739,62 +912,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
       <c r="C5" s="2">
         <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
       <c r="G5" s="2">
         <v>5</v>
       </c>
       <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="56.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
